--- a/vysledek.xlsx
+++ b/vysledek.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,11 @@
           <t>koupeno</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>koupeno_old</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -490,7 +495,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>91.416</v>
+        <v>365.664</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -498,6 +503,9 @@
         </is>
       </c>
       <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -517,7 +525,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>91.416</v>
+        <v>365.664</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -525,6 +533,9 @@
         </is>
       </c>
       <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -544,7 +555,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.9142000000000001</v>
+        <v>3.6568</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -552,8 +563,9 @@
         </is>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -571,7 +583,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.7425</v>
+        <v>10.97</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -579,6 +591,9 @@
         </is>
       </c>
       <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -598,7 +613,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4.2966</v>
+        <v>17.1864</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -606,6 +621,9 @@
         </is>
       </c>
       <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -625,7 +643,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -633,6 +651,9 @@
         </is>
       </c>
       <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -652,7 +673,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66.667</v>
+        <v>266.668</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -660,6 +681,9 @@
         </is>
       </c>
       <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -679,7 +703,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>66.667</v>
+        <v>266.668</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -687,6 +711,9 @@
         </is>
       </c>
       <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -706,7 +733,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -714,6 +741,9 @@
         </is>
       </c>
       <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +763,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.91416</v>
+        <v>731.328</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -741,6 +771,9 @@
         </is>
       </c>
       <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -760,7 +793,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.91416</v>
+        <v>731.328</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -768,6 +801,9 @@
         </is>
       </c>
       <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -787,7 +823,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.009142000000000001</v>
+        <v>7.313600000000001</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -795,6 +831,9 @@
         </is>
       </c>
       <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -814,7 +853,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.027425</v>
+        <v>21.94</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -822,6 +861,9 @@
         </is>
       </c>
       <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -841,7 +883,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.042966</v>
+        <v>34.3728</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -849,6 +891,9 @@
         </is>
       </c>
       <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -868,7 +913,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>8000</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -876,6 +921,9 @@
         </is>
       </c>
       <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -895,7 +943,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.6666700000000001</v>
+        <v>533.336</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -903,6 +951,9 @@
         </is>
       </c>
       <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -922,7 +973,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.6666700000000001</v>
+        <v>533.336</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -930,6 +981,9 @@
         </is>
       </c>
       <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -949,7 +1003,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>8000</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -957,6 +1011,9 @@
         </is>
       </c>
       <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
         <v>1</v>
       </c>
     </row>

--- a/vysledek.xlsx
+++ b/vysledek.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,11 +473,6 @@
           <t>koupeno</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>koupeno_old</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -505,9 +500,6 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -535,9 +527,6 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -563,9 +552,8 @@
         </is>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -593,9 +581,6 @@
       <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -623,9 +608,6 @@
       <c r="G6" t="b">
         <v>1</v>
       </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -651,10 +633,7 @@
         </is>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -681,10 +660,7 @@
         </is>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -711,10 +687,7 @@
         </is>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -741,10 +714,7 @@
         </is>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -773,9 +743,6 @@
       <c r="G11" t="b">
         <v>1</v>
       </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -803,9 +770,6 @@
       <c r="G12" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -833,9 +797,6 @@
       <c r="G13" t="b">
         <v>1</v>
       </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -863,9 +824,6 @@
       <c r="G14" t="b">
         <v>1</v>
       </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -893,9 +851,6 @@
       <c r="G15" t="b">
         <v>1</v>
       </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -923,9 +878,6 @@
       <c r="G16" t="b">
         <v>1</v>
       </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -951,10 +903,7 @@
         </is>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -981,10 +930,7 @@
         </is>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1011,9 +957,6 @@
         </is>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="b">
         <v>1</v>
       </c>
     </row>

--- a/vysledek.xlsx
+++ b/vysledek.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
